--- a/Source/ScanData.xlsx
+++ b/Source/ScanData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A3B994-E7DE-4976-B6B0-FC4EB9EB914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A4C4A-D117-42CC-9DDB-DE24D5217CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{35EC44FF-57E4-4F7B-99B2-D0EF4D2AED57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{35EC44FF-57E4-4F7B-99B2-D0EF4D2AED57}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="Persons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Официальное наименование проекта</t>
   </si>
@@ -61,6 +62,33 @@
   </si>
   <si>
     <t>Примечание</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>ТрЗ без трекинга</t>
+  </si>
+  <si>
+    <t>ID в Yandex Tracker</t>
+  </si>
+  <si>
+    <t>Адолфи</t>
+  </si>
+  <si>
+    <t>raymond</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>belov</t>
+  </si>
+  <si>
+    <t>Буба</t>
+  </si>
+  <si>
+    <t>buba-konskiy</t>
   </si>
 </sst>
 </file>
@@ -425,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F27F0-3755-441F-9D45-5A7A37781EA9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +510,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7DD67D-5105-4B2D-AFB0-D9EFACA3E109}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Source/ScanData.xlsx
+++ b/Source/ScanData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A4C4A-D117-42CC-9DDB-DE24D5217CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0079DD-B022-4428-8CC1-763185CF5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{35EC44FF-57E4-4F7B-99B2-D0EF4D2AED57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{35EC44FF-57E4-4F7B-99B2-D0EF4D2AED57}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Официальное наименование проекта</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>buba-konskiy</t>
+  </si>
+  <si>
+    <t>Поторочин</t>
+  </si>
+  <si>
+    <t>potor</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F27F0-3755-441F-9D45-5A7A37781EA9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7DD67D-5105-4B2D-AFB0-D9EFACA3E109}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +551,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -563,6 +572,14 @@
       </c>
       <c r="C4">
         <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Source/ScanData.xlsx
+++ b/Source/ScanData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0079DD-B022-4428-8CC1-763185CF5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A1548C-3608-4085-B0FB-9D640363EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{35EC44FF-57E4-4F7B-99B2-D0EF4D2AED57}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Официальное наименование проекта</t>
   </si>
@@ -61,15 +61,6 @@
     <t>Project: "МТ IP1810"</t>
   </si>
   <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>ТрЗ без трекинга</t>
-  </si>
-  <si>
     <t>ID в Yandex Tracker</t>
   </si>
   <si>
@@ -95,6 +86,12 @@
   </si>
   <si>
     <t>potor</t>
+  </si>
+  <si>
+    <t>ТрЗ за смену статуса</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
@@ -460,7 +457,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,9 +473,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -487,9 +482,6 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -498,9 +490,6 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -508,9 +497,6 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -523,33 +509,33 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -557,18 +543,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>55</v>
@@ -576,10 +562,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Source/ScanData.xlsx
+++ b/Source/ScanData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C418812-0EFD-4509-A093-272A625CE6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D2E05-06FB-401F-9854-976CDD4B9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10790" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boss" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Должность</t>
   </si>
@@ -68,18 +65,9 @@
     <t>Поторочин</t>
   </si>
   <si>
-    <t>potor</t>
-  </si>
-  <si>
-    <t>Начальник наименование отдела</t>
-  </si>
-  <si>
     <t>Инициалы, фамилия</t>
   </si>
   <si>
-    <t>П.П. Петров</t>
-  </si>
-  <si>
     <t>Обновленная версия БМРЗ-60-VIP</t>
   </si>
   <si>
@@ -159,6 +147,327 @@
   </si>
   <si>
     <t># MTPD-1139</t>
+  </si>
+  <si>
+    <t>Ефименко</t>
+  </si>
+  <si>
+    <t>Чистяков</t>
+  </si>
+  <si>
+    <t>Денисов</t>
+  </si>
+  <si>
+    <t>Тимин</t>
+  </si>
+  <si>
+    <t>Менделеева</t>
+  </si>
+  <si>
+    <t>Одаренко</t>
+  </si>
+  <si>
+    <t>Гетманенко</t>
+  </si>
+  <si>
+    <t>Сахаров</t>
+  </si>
+  <si>
+    <t>Барсуков</t>
+  </si>
+  <si>
+    <t>efimenko</t>
+  </si>
+  <si>
+    <t>chistyakov</t>
+  </si>
+  <si>
+    <t>timin</t>
+  </si>
+  <si>
+    <t>mendeleeva</t>
+  </si>
+  <si>
+    <t>odarenko</t>
+  </si>
+  <si>
+    <t>getmanenko</t>
+  </si>
+  <si>
+    <t>sakharov</t>
+  </si>
+  <si>
+    <t>Гультяева</t>
+  </si>
+  <si>
+    <t>gultyaeva</t>
+  </si>
+  <si>
+    <t>rodion barsukov</t>
+  </si>
+  <si>
+    <t>andrey popov</t>
+  </si>
+  <si>
+    <t>evgeny denisov</t>
+  </si>
+  <si>
+    <t>vladislav pavlov</t>
+  </si>
+  <si>
+    <t>Чепелев</t>
+  </si>
+  <si>
+    <t>chepelev</t>
+  </si>
+  <si>
+    <t>Ильинский</t>
+  </si>
+  <si>
+    <t>Белов Алексей</t>
+  </si>
+  <si>
+    <t>Шаговик</t>
+  </si>
+  <si>
+    <t>Горбунов</t>
+  </si>
+  <si>
+    <t>Чудилов</t>
+  </si>
+  <si>
+    <t>Сухнев</t>
+  </si>
+  <si>
+    <t>potorochin</t>
+  </si>
+  <si>
+    <t>Гондурова</t>
+  </si>
+  <si>
+    <t>Серебряков</t>
+  </si>
+  <si>
+    <t>Кознов</t>
+  </si>
+  <si>
+    <t>Нестеров</t>
+  </si>
+  <si>
+    <t>Завгородняя</t>
+  </si>
+  <si>
+    <t>Григоров</t>
+  </si>
+  <si>
+    <t>Воробьев</t>
+  </si>
+  <si>
+    <t>Панченко</t>
+  </si>
+  <si>
+    <t>Ходнев</t>
+  </si>
+  <si>
+    <t>Канин</t>
+  </si>
+  <si>
+    <t>aleksey belov</t>
+  </si>
+  <si>
+    <t>shagovik</t>
+  </si>
+  <si>
+    <t>gorbunov</t>
+  </si>
+  <si>
+    <t>chudilov</t>
+  </si>
+  <si>
+    <t>gondurova</t>
+  </si>
+  <si>
+    <t>koznov</t>
+  </si>
+  <si>
+    <t>nesterov</t>
+  </si>
+  <si>
+    <t>grigorov</t>
+  </si>
+  <si>
+    <t>kanin</t>
+  </si>
+  <si>
+    <t>panchenko</t>
+  </si>
+  <si>
+    <t>ilinskiy</t>
+  </si>
+  <si>
+    <t>sukhnev</t>
+  </si>
+  <si>
+    <t>serebryakov</t>
+  </si>
+  <si>
+    <t>foma kiniaev</t>
+  </si>
+  <si>
+    <t>Ащьф Лштшфум</t>
+  </si>
+  <si>
+    <t>khodnev</t>
+  </si>
+  <si>
+    <t>duzenko</t>
+  </si>
+  <si>
+    <t>Дузенко</t>
+  </si>
+  <si>
+    <t>vorobjev</t>
+  </si>
+  <si>
+    <t>zavgorodnyaya</t>
+  </si>
+  <si>
+    <t>Карлова</t>
+  </si>
+  <si>
+    <t>Федосеева</t>
+  </si>
+  <si>
+    <t>karlova</t>
+  </si>
+  <si>
+    <t>fedoseeva</t>
+  </si>
+  <si>
+    <t>ICT-MT: Программная платформа полного цикла конфигурирования ИЭУ</t>
+  </si>
+  <si>
+    <t>Project: "MT ICT"</t>
+  </si>
+  <si>
+    <t>WebScadaMT</t>
+  </si>
+  <si>
+    <t>Project: "MT SW SCADA"</t>
+  </si>
+  <si>
+    <t>Федоров Алексей</t>
+  </si>
+  <si>
+    <t>aleksey fedorov</t>
+  </si>
+  <si>
+    <t>Сороколетов Игорь Николаевич</t>
+  </si>
+  <si>
+    <t>Igor Sorokoletov</t>
+  </si>
+  <si>
+    <t>Цветков Павел Вячеславович</t>
+  </si>
+  <si>
+    <t>Pavel Tsvetkov</t>
+  </si>
+  <si>
+    <t>Пушкарь Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>Daniil Pushkar</t>
+  </si>
+  <si>
+    <t>Перерва Алексей Петрович</t>
+  </si>
+  <si>
+    <t>Aleksey Pererva</t>
+  </si>
+  <si>
+    <t>Кашипов Рамазан Рафисович</t>
+  </si>
+  <si>
+    <t>Ramazan Kashipov</t>
+  </si>
+  <si>
+    <t>Шахова Анна Викторовна</t>
+  </si>
+  <si>
+    <t>Anna Shakhova</t>
+  </si>
+  <si>
+    <t>П.П. Пупкинс</t>
+  </si>
+  <si>
+    <t>Начальник важного отдела</t>
+  </si>
+  <si>
+    <t>Попов Андрей</t>
+  </si>
+  <si>
+    <t>Павлов Владислав</t>
+  </si>
+  <si>
+    <t>Салихов</t>
+  </si>
+  <si>
+    <t>denis salikhov</t>
+  </si>
+  <si>
+    <t>Троянов</t>
+  </si>
+  <si>
+    <t>Шевченко</t>
+  </si>
+  <si>
+    <t>Завгородний</t>
+  </si>
+  <si>
+    <t>Ларионов</t>
+  </si>
+  <si>
+    <t>Александрова</t>
+  </si>
+  <si>
+    <t>Гинчак</t>
+  </si>
+  <si>
+    <t>Порываев</t>
+  </si>
+  <si>
+    <t>Маменко</t>
+  </si>
+  <si>
+    <t>larionov</t>
+  </si>
+  <si>
+    <t>aleksandrova</t>
+  </si>
+  <si>
+    <t>ginchak</t>
+  </si>
+  <si>
+    <t>mamenko</t>
+  </si>
+  <si>
+    <t>troyanov</t>
+  </si>
+  <si>
+    <t>shevchenko</t>
+  </si>
+  <si>
+    <t>zavgorodniy</t>
+  </si>
+  <si>
+    <t>poryvaev</t>
+  </si>
+  <si>
+    <t>Леонов Владимир</t>
+  </si>
+  <si>
+    <t>vladimir leonov</t>
   </si>
 </sst>
 </file>
@@ -209,13 +518,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +845,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,15 +859,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -570,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +905,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -601,106 +913,122 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -711,17 +1039,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -736,7 +1064,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -751,11 +1079,564 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/ScanData.xlsx
+++ b/Source/ScanData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sea1693\PycharmProjects\costsheet\Source\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D2E05-06FB-401F-9854-976CDD4B9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27703D2-3422-41DF-8C92-25D44802DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10790" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Должность</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Одаренко</t>
   </si>
   <si>
-    <t>Гетманенко</t>
-  </si>
-  <si>
     <t>Сахаров</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>odarenko</t>
   </si>
   <si>
-    <t>getmanenko</t>
-  </si>
-  <si>
     <t>sakharov</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>evgeny denisov</t>
   </si>
   <si>
-    <t>vladislav pavlov</t>
-  </si>
-  <si>
     <t>Чепелев</t>
   </si>
   <si>
@@ -311,12 +302,6 @@
     <t>serebryakov</t>
   </si>
   <si>
-    <t>foma kiniaev</t>
-  </si>
-  <si>
-    <t>Ащьф Лштшфум</t>
-  </si>
-  <si>
     <t>khodnev</t>
   </si>
   <si>
@@ -362,39 +347,18 @@
     <t>aleksey fedorov</t>
   </si>
   <si>
-    <t>Сороколетов Игорь Николаевич</t>
-  </si>
-  <si>
     <t>Igor Sorokoletov</t>
   </si>
   <si>
-    <t>Цветков Павел Вячеславович</t>
-  </si>
-  <si>
     <t>Pavel Tsvetkov</t>
   </si>
   <si>
-    <t>Пушкарь Даниил Андреевич</t>
-  </si>
-  <si>
     <t>Daniil Pushkar</t>
   </si>
   <si>
-    <t>Перерва Алексей Петрович</t>
-  </si>
-  <si>
-    <t>Aleksey Pererva</t>
-  </si>
-  <si>
-    <t>Кашипов Рамазан Рафисович</t>
-  </si>
-  <si>
     <t>Ramazan Kashipov</t>
   </si>
   <si>
-    <t>Шахова Анна Викторовна</t>
-  </si>
-  <si>
     <t>Anna Shakhova</t>
   </si>
   <si>
@@ -407,9 +371,6 @@
     <t>Попов Андрей</t>
   </si>
   <si>
-    <t>Павлов Владислав</t>
-  </si>
-  <si>
     <t>Салихов</t>
   </si>
   <si>
@@ -431,9 +392,6 @@
     <t>Александрова</t>
   </si>
   <si>
-    <t>Гинчак</t>
-  </si>
-  <si>
     <t>Порываев</t>
   </si>
   <si>
@@ -446,9 +404,6 @@
     <t>aleksandrova</t>
   </si>
   <si>
-    <t>ginchak</t>
-  </si>
-  <si>
     <t>mamenko</t>
   </si>
   <si>
@@ -468,6 +423,21 @@
   </si>
   <si>
     <t>vladimir leonov</t>
+  </si>
+  <si>
+    <t>Сороколетов</t>
+  </si>
+  <si>
+    <t>Цветков</t>
+  </si>
+  <si>
+    <t>Пушкарь</t>
+  </si>
+  <si>
+    <t>Кашипов</t>
+  </si>
+  <si>
+    <t>Шахова</t>
   </si>
 </sst>
 </file>
@@ -859,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -867,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1017,18 +987,18 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1070,52 +1040,37 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1123,10 +1078,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1134,10 +1086,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1145,10 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1156,10 +1102,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1167,10 +1110,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1178,461 +1118,295 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>124</v>
+      <c r="A13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="B45" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
